--- a/Algoritmo_Rota/Planilhas/A_Estrela_Euclidiano/PLN_81_10.xlsx
+++ b/Algoritmo_Rota/Planilhas/A_Estrela_Euclidiano/PLN_81_10.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,20 +429,30 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>inicio</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>Distancia</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>min</t>
+          <t>ativos</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
+        <is>
+          <t>melhor rota</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>caminho</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
         <is>
           <t>Tempo</t>
         </is>
@@ -453,169 +463,86 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3487.333333333333</v>
+        <v>23</v>
       </c>
       <c r="C2" t="n">
-        <v>3695</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3449</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.0344549814860026</v>
+        <v>3231</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>67, 20, 2, 46, 8, 26, 79, 49, 74, 70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>23 -&gt; 67 -&gt; 70 -&gt; 74 -&gt; 79 -&gt; 2 -&gt; 26 -&gt; 8 -&gt; 20 -&gt; 46 -&gt; 49 -&gt; 23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>23 -&gt; 22 -&gt; 21 -&gt; 67 -&gt; 68 -&gt; 70 -&gt; 72 -&gt; 74 -&gt; 76 -&gt; 77 -&gt; 78 -&gt; 79 -&gt; 80 -&gt; 2 -&gt; 3 -&gt; 25 -&gt; 26 -&gt; 27 -&gt; 6 -&gt; 5 -&gt; 8 -&gt; 12 -&gt; 16 -&gt; 17 -&gt; 20 -&gt; 24 -&gt; 32 -&gt; 44 -&gt; 46 -&gt; 45 -&gt; 49 -&gt; 45 -&gt; 43 -&gt; 32 -&gt; 24 -&gt; 23</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>0.04796838760375977</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3460.033333333333</v>
+        <v>48</v>
       </c>
       <c r="C3" t="n">
-        <v>3587</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3356</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.03905709584554037</v>
+        <v>4082</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15, 4, 41, 53, 23, 37, 62, 78, 24, 27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>48 -&gt; 41 -&gt; 24 -&gt; 23 -&gt; 15 -&gt; 4 -&gt; 78 -&gt; 27 -&gt; 37 -&gt; 62 -&gt; 53 -&gt; 48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>48 -&gt; 47 -&gt; 46 -&gt; 44 -&gt; 41 -&gt; 32 -&gt; 24 -&gt; 23 -&gt; 19 -&gt; 16 -&gt; 15 -&gt; 14 -&gt; 10 -&gt; 7 -&gt; 4 -&gt; 1 -&gt; 77 -&gt; 78 -&gt; 79 -&gt; 81 -&gt; 3 -&gt; 25 -&gt; 26 -&gt; 27 -&gt; 28 -&gt; 29 -&gt; 30 -&gt; 37 -&gt; 38 -&gt; 41 -&gt; 32 -&gt; 24 -&gt; 23 -&gt; 22 -&gt; 66 -&gt; 65 -&gt; 64 -&gt; 61 -&gt; 62 -&gt; 58 -&gt; 57 -&gt; 55 -&gt; 53 -&gt; 49 -&gt; 45 -&gt; 46 -&gt; 47 -&gt; 48</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0.04884099960327148</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>3458.333333333333</v>
+        <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>3585</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3236</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.04572198390960693</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3574.433333333333</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3825</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3315</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.04812750816345215</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>3620.033333333333</v>
-      </c>
-      <c r="C6" t="n">
-        <v>3775</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3389</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.04965910911560058</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>4076.533333333333</v>
-      </c>
-      <c r="C7" t="n">
-        <v>4232</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3995</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.05088890393575032</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>3319.033333333333</v>
-      </c>
-      <c r="C8" t="n">
-        <v>3527</v>
-      </c>
-      <c r="D8" t="n">
-        <v>3094</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.04849307537078858</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3787.966666666667</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3972</v>
-      </c>
-      <c r="D9" t="n">
-        <v>3628</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.0455938736597697</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>3179.733333333333</v>
-      </c>
-      <c r="C10" t="n">
-        <v>3450</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2956</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.03991470336914062</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>3375.533333333333</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3474</v>
-      </c>
-      <c r="D11" t="n">
-        <v>3365</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.03565102418263753</v>
+        <v>3796</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>63, 64, 40, 34, 31, 1, 29, 21, 76, 17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>11 -&gt; 63 -&gt; 64 -&gt; 21 -&gt; 76 -&gt; 1 -&gt; 34 -&gt; 29 -&gt; 31 -&gt; 40 -&gt; 17 -&gt; 11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>11 -&gt; 10 -&gt; 14 -&gt; 18 -&gt; 21 -&gt; 22 -&gt; 66 -&gt; 65 -&gt; 64 -&gt; 61 -&gt; 62 -&gt; 63 -&gt; 62 -&gt; 61 -&gt; 64 -&gt; 65 -&gt; 66 -&gt; 22 -&gt; 21 -&gt; 67 -&gt; 68 -&gt; 70 -&gt; 72 -&gt; 74 -&gt; 76 -&gt; 77 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 25 -&gt; 26 -&gt; 27 -&gt; 28 -&gt; 34 -&gt; 28 -&gt; 29 -&gt; 30 -&gt; 31 -&gt; 38 -&gt; 39 -&gt; 40 -&gt; 39 -&gt; 38 -&gt; 31 -&gt; 20 -&gt; 17 -&gt; 16 -&gt; 12 -&gt; 11</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0.04864001274108887</v>
       </c>
     </row>
   </sheetData>

--- a/Algoritmo_Rota/Planilhas/A_Estrela_Euclidiano/PLN_81_10.xlsx
+++ b/Algoritmo_Rota/Planilhas/A_Estrela_Euclidiano/PLN_81_10.xlsx
@@ -454,7 +454,7 @@
         <v>3231</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02924084663391113</v>
+        <v>0.03047418594360352</v>
       </c>
     </row>
   </sheetData>

--- a/Algoritmo_Rota/Planilhas/A_Estrela_Euclidiano/PLN_81_10.xlsx
+++ b/Algoritmo_Rota/Planilhas/A_Estrela_Euclidiano/PLN_81_10.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,20 +424,25 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Qtd_Nós</t>
+          <t>Índice</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
-        <is>
-          <t>Ativos</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
         <is>
           <t>Distancia</t>
         </is>
       </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
       <c r="D1" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
         <is>
           <t>Tempo</t>
         </is>
@@ -445,16 +450,172 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>3435.566666666667</v>
       </c>
       <c r="C2" t="n">
-        <v>3231</v>
+        <v>3512</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03047418594360352</v>
+        <v>3399</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0288921594619751</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3234.333333333333</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3387</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3029</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.03049564361572266</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3458.2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3585</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3238</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.03043496608734131</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3570.733333333333</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3917</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3312</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.03012724717458089</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3298</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3555</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2981</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.03100792566935221</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>4081.466666666667</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4227</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3990</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.03061772187550863</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3107.2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3344</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2966</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.03026014963785807</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3790.366666666667</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4021</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3582</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.03086214860280355</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3149.266666666667</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3377</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2935</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.03164127667744954</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3122.9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3531</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3029</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.02850728829701742</v>
       </c>
     </row>
   </sheetData>
